--- a/data/trans_dic/P55_6-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_6-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de un automóvil</t>
+          <t>Población que no puede permitirse disponer de un automóvil (tasa de respuesta: 99,12%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>85,73%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>76,81%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>90,09%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>68,01%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>88,97%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>87,56%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>84,42%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>92,52%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>70,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>91,29%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>86,67%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>80,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>68,99%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,38; 97,86</t>
+          <t>85,89; 97,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,65; 85,01</t>
+          <t>77,59; 91,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,38; 94,16</t>
+          <t>66,73; 84,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,97; 90,4</t>
+          <t>58,19; 78,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,12; 95,21</t>
+          <t>82,61; 93,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,27; 85,32</t>
+          <t>80,87; 92,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77,28; 90,49</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>61,31; 77,38</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>86,6; 94,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>81,94; 90,7</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74,19; 85,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62,49; 74,97</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>78,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>76,41%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>91,74%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>86,45%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>80,28%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>90,54%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>79,16%</t>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>74,98%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>90,47%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>79,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>75,7%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,3; 93,67</t>
+          <t>79,32; 94,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,34; 86,16</t>
+          <t>83,21; 94,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,78; 95,3</t>
+          <t>68,85; 85,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,03; 86,02</t>
+          <t>66,44; 84,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,66; 93,7</t>
+          <t>86,16; 94,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,38; 84,39</t>
+          <t>79,8; 91,58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>72,82; 86,01</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>67,89; 81,25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85,46; 93,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>83,7; 91,81</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>73,66; 84,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68,94; 81,1</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>93,95%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>90,22%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>92,59%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>90,71%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>92,64%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90,48%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>81,17%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>93,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82,22%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>93,87%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>92,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>85,95%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>86,66%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,24; 97,98</t>
+          <t>88,43; 98,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,7; 93,82</t>
+          <t>89,85; 96,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,46; 95,0</t>
+          <t>84,35; 94,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,74; 85,53</t>
+          <t>84,96; 94,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,17; 95,55</t>
+          <t>89,91; 95,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,16; 89,31</t>
+          <t>86,52; 93,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>76,38; 86,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>76,39; 87,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>90,54; 95,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>89,3; 94,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>82,35; 89,27</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>83,24; 89,86</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>92,88%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>82,67%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>88,2%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>84,41%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>88,13%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>87,35%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>76,65%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>91,14%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>90,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>79,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>81,06%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,47; 96,57</t>
+          <t>90,15; 96,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,5; 88,19</t>
+          <t>88,48; 95,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,29; 91,52</t>
+          <t>75,37; 87,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,09; 82,35</t>
+          <t>78,52; 89,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,58; 93,05</t>
+          <t>84,3; 91,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,76; 83,99</t>
+          <t>83,06; 91,07</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>70,35; 81,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>71,85; 82,69</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>88,74; 93,29</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>87,43; 92,4</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>75,15; 83,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>77,01; 84,46</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>78,22%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,8%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>82,22%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66,81%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60,48%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>85,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>84,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>72,25%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>68,7%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,25; 92,18</t>
+          <t>84,15; 91,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,14; 83,86</t>
+          <t>80,51; 91,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,4; 86,87</t>
+          <t>70,31; 84,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,45; 72,66</t>
+          <t>70,92; 83,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>82,61; 88,56</t>
+          <t>77,11; 86,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,76; 77,18</t>
+          <t>76,0; 87,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60,2; 72,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52,65; 66,83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>82,0; 88,14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>80,32; 88,28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>67,34; 77,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>63,96; 73,12</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>80,14%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>73,11%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>59,49%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58,8%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>47,24%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>69,36%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>68,93%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>70,25%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>55,28%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,85; 86,89</t>
+          <t>72,83; 86,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>57,77; 73,56</t>
+          <t>77,1; 90,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53,18; 70,66</t>
+          <t>57,01; 73,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37,68; 57,01</t>
+          <t>65,31; 80,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,0; 74,75</t>
+          <t>52,42; 67,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,89; 62,02</t>
+          <t>49,18; 66,73</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36,41; 56,84</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35,59; 51,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>63,68; 73,72</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>63,83; 76,21</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47,95; 62,67</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>49,72; 61,52</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>89,42%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>79,45%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>84,12%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>79,31%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>83,69%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>81,41%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>71,26%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>87,36%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>67,41%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>87,1%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>85,31%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>75,35%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>73,3%</t>
         </is>
       </c>
     </row>
@@ -1119,49 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,08; 92,48</t>
+          <t>87,97; 92,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76,68; 82,47</t>
+          <t>86,92; 91,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,93; 85,82</t>
+          <t>76,31; 82,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>68,11; 74,48</t>
+          <t>76,22; 82,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,77; 88,72</t>
+          <t>81,5; 85,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,27; 77,56</t>
+          <t>78,59; 84,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>67,53; 74,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>64,26; 70,44</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>85,51; 88,48</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>83,34; 87,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>73,16; 77,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>70,98; 75,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de un automóvil (tasa de respuesta: 99,12%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>471323</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>386128</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28919</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>447602</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>414935</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31572</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26486</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>918925</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>801064</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>63590</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>55404</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>432441; 491086</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>349464; 412254</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27817; 35229</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24746; 33205</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>415611; 470473</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>383225; 437191</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28899; 33842</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23165; 29236</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>871768; 948302</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>757363; 838372</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58676; 67488</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50187; 60208</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>379.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>521136</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>512787</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38644</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36017</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>466358</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>436665</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36636</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34253</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>987494</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>949452</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>75279</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>70270</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>462596; 548962</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>477403; 541060</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>34049; 42525</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31317; 39627</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>438009; 482345</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>403085; 462582</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33230; 39251</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31014; 37120</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>932779; 1021997</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>902985; 990472</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70048; 80000</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>63992; 75283</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>640147</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>622247</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53585</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54548</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>654713</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>637563</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43120</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45099</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1294860</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1259810</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96705</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>99647</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>594921; 659984</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>595039; 640847</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50101; 55930</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51086; 56630</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>635428; 671508</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>609679; 659612</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>40577; 45683</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41903; 47752</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1248964; 1322600</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1220751; 1291577</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>92664; 100446</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>95714; 103329</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>617.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>593694</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>604804</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>47369</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47813</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>565470</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>574125</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39302</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41323</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1159165</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1178929</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>86671</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>89135</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>568203; 608223</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>576142; 622772</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>43182; 50319</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>44478; 50454</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>540896; 585154</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>545915; 598592</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36071; 42036</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38307; 44083</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1128716; 1186503</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1144000; 1209015</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>81588; 90916</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>84672; 92868</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>438.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>338.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>430121</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>428737</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34394</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34200</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>417865</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>415742</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32231</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28331</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>847986</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>844479</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>66625</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>62531</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>409253; 446709</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>396108; 450664</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30912; 37140</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>31325; 36807</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>390004; 438512</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>384285; 441558</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29043; 35195</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24666; 31305</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>813543; 874401</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>801267; 880688</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>62095; 71004</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>58214; 66552</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>407926</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>471628</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>30030</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32160</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>378264</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>420228</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29321</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26889</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>786190</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>891855</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>59351</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>59049</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>367612; 437891</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>427761; 502977</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>25820; 33277</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>28727; 35191</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>333323; 427114</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>351459; 476870</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>22603; 35280</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21979; 31622</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>726327; 840829</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>810353; 967409</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>51481; 67285</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>52581; 65061</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1212.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>925.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>735.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>723.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1390.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1074.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>808.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>782.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2602.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1999.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1543.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1505.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3064348</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3026330</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>236039</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>233656</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2930273</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2899258</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>212182</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>202381</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5994621</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5925588</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>448221</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>436038</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2974161; 3119920</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2941496; 3091830</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>226706; 244655</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>224544; 241611</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2853483; 3003789</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2798886; 2991367</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>201056; 221147</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>192919; 211478</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5884893; 6089672</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5788314; 6043601</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>435205; 460169</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>422195; 448506</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>